--- a/biology/Médecine/George_Starkey_(Eyrénée_Philalèthe)/George_Starkey_(Eyrénée_Philalèthe).xlsx
+++ b/biology/Médecine/George_Starkey_(Eyrénée_Philalèthe)/George_Starkey_(Eyrénée_Philalèthe).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>George_Starkey_(Eyr%C3%A9n%C3%A9e_Philal%C3%A8the)</t>
+          <t>George_Starkey_(Eyrénée_Philalèthe)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Starkey (né aux Bermudes en 1628, mort à Londres en 1665), est un médecin et alchimiste anglais, célèbre par ses traités d'alchimie écrits sous le pseudonyme latin de Eirenaeus Philalethes, francisé en Eyrénée Philalèthe ou Irénée Philalèthe.
 Son père, était un pasteur calviniste puritain d'origine écossaise. George Starkey fait ses études à Harvard de 1643 à 1649. Il pratique la médecine à Boston de  1646 à 1650, avec l'aide de John Winthrop Jr et en Angleterre de 1650 à 1665, où il se lie aux cercles puritains de Samuel Hartlib. Il se lie aussi avec le physicien et chimiste Robert Boyle.
